--- a/testdata/statistics_test.xlsx
+++ b/testdata/statistics_test.xlsx
@@ -50,8 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,8 +93,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -381,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -410,644 +414,644 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>42292</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>42292.375</v>
       </c>
-      <c r="B4">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>102</v>
       </c>
       <c r="D4">
         <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>42292.378472222219</v>
       </c>
-      <c r="B5">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
       </c>
       <c r="D5">
         <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>42292.381944328707</v>
       </c>
-      <c r="B6">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>102</v>
       </c>
       <c r="D6">
         <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>42292.385416493053</v>
       </c>
-      <c r="B7">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>102</v>
       </c>
       <c r="D7">
         <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>42292.388888657406</v>
       </c>
-      <c r="B8">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>102</v>
       </c>
       <c r="D8">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>42292.392360821759</v>
       </c>
-      <c r="B9">
-        <v>102</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>102</v>
       </c>
       <c r="D9">
         <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>42292.395832986113</v>
       </c>
-      <c r="B10">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>102</v>
       </c>
       <c r="D10">
         <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>42292.399305150466</v>
       </c>
-      <c r="B11">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>102</v>
       </c>
       <c r="D11">
         <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>42292.402777314812</v>
       </c>
-      <c r="B12">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>102</v>
       </c>
       <c r="D12">
         <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>42292.406249479165</v>
       </c>
-      <c r="B13">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>102</v>
       </c>
       <c r="D13">
         <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>42292.409721643518</v>
       </c>
-      <c r="B14">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>102</v>
       </c>
       <c r="D14">
         <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>42292.413193807872</v>
       </c>
-      <c r="B15">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
       </c>
       <c r="D15">
         <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>42292.416665972225</v>
       </c>
-      <c r="B16">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>102</v>
       </c>
       <c r="D16">
         <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>42292.420138136571</v>
       </c>
-      <c r="B17">
-        <v>102</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>102</v>
       </c>
       <c r="D17">
         <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>42292.423610300924</v>
       </c>
-      <c r="B18">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>102</v>
       </c>
       <c r="D18">
         <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>42292.427082465278</v>
       </c>
-      <c r="B19">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>102</v>
       </c>
       <c r="D19">
         <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>42292.430554629631</v>
       </c>
-      <c r="B20">
-        <v>102</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>102</v>
       </c>
       <c r="D20">
         <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>42292.434026793984</v>
       </c>
-      <c r="B21">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>102</v>
       </c>
       <c r="D21">
         <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>42292.43749895833</v>
       </c>
-      <c r="B22">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>102</v>
       </c>
       <c r="D22">
         <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>42292.440971122684</v>
       </c>
-      <c r="B23">
-        <v>102</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>102</v>
       </c>
       <c r="D23">
         <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>42292.444443287037</v>
       </c>
-      <c r="B24">
-        <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>102</v>
       </c>
       <c r="D24">
         <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>42292.44791545139</v>
       </c>
-      <c r="B25">
-        <v>102</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>102</v>
       </c>
       <c r="D25">
         <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>42292.451387615743</v>
       </c>
-      <c r="B26">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>102</v>
       </c>
       <c r="D26">
         <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>42292.454859780089</v>
       </c>
-      <c r="B27">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>102</v>
       </c>
       <c r="D27">
         <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>42292.458331944443</v>
       </c>
-      <c r="B28">
-        <v>102</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>102</v>
       </c>
       <c r="D28">
         <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>42292.461804108796</v>
       </c>
-      <c r="B29">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>102</v>
       </c>
       <c r="D29">
         <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>42292.465276273149</v>
       </c>
-      <c r="B30">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>102</v>
       </c>
       <c r="D30">
         <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>42292.468748437503</v>
       </c>
-      <c r="B31">
-        <v>102</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>102</v>
       </c>
       <c r="D31">
         <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>42292.472220601849</v>
       </c>
-      <c r="B32">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>102</v>
       </c>
       <c r="D32">
         <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>42292.475692766202</v>
       </c>
-      <c r="B33">
-        <v>102</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>102</v>
       </c>
       <c r="D33">
         <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>42292.479164930555</v>
       </c>
-      <c r="B34">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>102</v>
       </c>
       <c r="D34">
         <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>42292.482637094909</v>
       </c>
-      <c r="B35">
-        <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>102</v>
       </c>
       <c r="D35">
         <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>42292.486109259262</v>
       </c>
-      <c r="B36">
-        <v>102</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>102</v>
       </c>
       <c r="D36">
         <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>42292.489581423608</v>
       </c>
-      <c r="B37">
-        <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>102</v>
       </c>
       <c r="D37">
         <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>42292.493053587961</v>
       </c>
-      <c r="B38">
-        <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>102</v>
       </c>
       <c r="D38">
         <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>42292.496525752314</v>
       </c>
-      <c r="B39">
-        <v>102</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>102</v>
       </c>
       <c r="D39">
         <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>42292.499997916668</v>
       </c>
-      <c r="B40">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>102</v>
       </c>
       <c r="D40">
         <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>42292.503470023148</v>
       </c>
-      <c r="B41">
-        <v>102</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>102</v>
       </c>
       <c r="D41">
         <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>42292.506942187501</v>
       </c>
-      <c r="B42">
-        <v>102</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>102</v>
       </c>
       <c r="D42">
         <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42292.510414351855</v>
       </c>
-      <c r="B43">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>102</v>
       </c>
       <c r="D43">
         <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42292.513886516201</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
         <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
       </c>
       <c r="D44">
         <v>1200</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>42292.527777777781</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
         <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>42292.541666666664</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
         <v>103</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
       </c>
       <c r="D46">
         <v>54000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>42292.604166666664</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
         <v>101</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>42292.666666666664</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
         <v>105</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
       </c>
       <c r="D48">
         <v>0</v>
